--- a/汽柴煤油2.0/eta/PP指数-PG指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/PP指数-PG指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2232.2432</v>
+        <v>2148.6698</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2588.8333</v>
+        <v>2576.7143</v>
       </c>
       <c r="C3" t="n">
-        <v>2534.2226</v>
+        <v>2495.6895</v>
       </c>
     </row>
     <row r="4">
